--- a/Excel/ProjectConfig/StartProcessConfig.xlsx
+++ b/Excel/ProjectConfig/StartProcessConfig.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E10"/>
+  <dimension ref="C3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -518,6 +518,17 @@
         <v>20005</v>
       </c>
     </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
